--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="21216" windowHeight="9024"/>
+  </bookViews>
   <sheets>
-    <sheet name="Лист1" r:id="rId1" sheetId="1" state="visible"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcCompleted="true" calcMode="auto" calcOnSave="false" fullCalcOnLoad="false"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Табельный номер</t>
   </si>
@@ -28,7 +44,10 @@
     <t>Локация</t>
   </si>
   <si>
-    <t>Барак Обама Обамович</t>
+    <t>Подразделение</t>
+  </si>
+  <si>
+    <t>Алексей Романович Орлов</t>
   </si>
   <si>
     <t>Администратор</t>
@@ -37,7 +56,10 @@
     <t>Томск</t>
   </si>
   <si>
-    <t>Дейенерис Эйрисовна Таргариен</t>
+    <t>ТОМСК. ОБЛ Герасимовский</t>
+  </si>
+  <si>
+    <t>София Аркадиевна Смола</t>
   </si>
   <si>
     <t>Руководитель</t>
@@ -46,74 +68,744 @@
     <t>Омск</t>
   </si>
   <si>
-    <t>Адя Гондонович Гитлер</t>
+    <t>ОМСК. ОБЛ Рокоссовский</t>
+  </si>
+  <si>
+    <t>Герман Александрович Курчатов</t>
   </si>
   <si>
     <t>Пользователь</t>
   </si>
   <si>
-    <t>Картошка</t>
-  </si>
-  <si>
-    <t>Тиль Константин Камнев</t>
-  </si>
-  <si>
-    <t>Франкфурт</t>
+    <t>Сахалин</t>
+  </si>
+  <si>
+    <t>САХАЛ. ОБЛ Багратион</t>
+  </si>
+  <si>
+    <t>Тиль Константинович Камнев</t>
+  </si>
+  <si>
+    <t>Калиниград</t>
+  </si>
+  <si>
+    <t>КАЛИНИН. ОБЛ Кенинсберг</t>
   </si>
   <si>
     <t>Роман Текстиливич Арамисов</t>
   </si>
   <si>
-    <t>МОСКВА</t>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>МОСКВА. ОБЛ Жуков</t>
+  </si>
+  <si>
+    <t>Порфирий Петрович Глушков</t>
+  </si>
+  <si>
+    <t>ТОМСК. ОБЛ Бериевский</t>
+  </si>
+  <si>
+    <t>Кондратий Валерьевич Симонов</t>
+  </si>
+  <si>
+    <t>Тюмень</t>
+  </si>
+  <si>
+    <t>ТЮМЕН. ОБЛ Сталинский</t>
+  </si>
+  <si>
+    <t>Роман Александрович Сворин</t>
+  </si>
+  <si>
+    <t>Новосибирск</t>
+  </si>
+  <si>
+    <t>НОВОСИБ. ОБЛ Ивановский</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="XO Thames"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
+    <font>
       <sz val="12"/>
+      <name val="XO Thames"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="XO Thames"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="XO Thames"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="XO Thames"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="XO Thames"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="XO Thames"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="XO Thames"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="XO Thames"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="XO Thames"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="XO Thames"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="XO Thames"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="XO Thames"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="XO Thames"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="XO Thames"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="XO Thames"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="XO Thames"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="XO Thames"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="XO Thames"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="XO Thames"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="XO Thames"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="XO Thames"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyBorder="false" applyFill="false" applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" quotePrefix="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyBorder="false" applyFill="false" applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" quotePrefix="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -313,130 +1005,209 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
-  <sheetPr>
-    <outlinePr summaryBelow="true" summaryRight="true"/>
-  </sheetPr>
-  <dimension ref="A1:Z300"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showZeros="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="10.7884703773945" defaultRowHeight="15" zeroHeight="false"/>
+  <sheetFormatPr defaultColWidth="10.7916666666667" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col customWidth="true" max="1" min="1" outlineLevel="0" style="0" width="18.8913504823858"/>
-    <col customWidth="true" max="2" min="2" outlineLevel="0" style="0" width="31.7960072382826"/>
-    <col customWidth="true" max="3" min="3" outlineLevel="0" style="0" width="19.2904608712701"/>
-    <col customWidth="true" max="4" min="4" outlineLevel="0" style="0" width="16.3636369172711"/>
-    <col bestFit="true" customWidth="true" max="16384" min="5" outlineLevel="0" style="0" width="10.7884703773945"/>
+    <col min="1" max="1" width="18.8916666666667" customWidth="1"/>
+    <col min="2" max="2" width="31.8" customWidth="1"/>
+    <col min="3" max="3" width="19.2916666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.9" customWidth="1"/>
+    <col min="5" max="5" width="13.1" customWidth="1"/>
+    <col min="6" max="6" width="26.3" customWidth="1"/>
+    <col min="7" max="16384" width="10.7916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:6">
+      <c r="A2">
         <v>345667</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>7890125</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2">
+        <v>89773214789</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:6">
+      <c r="A3">
         <v>23456</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>34567890</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>98765</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>11111111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>123098</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>5555555</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>9012</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>2222222</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>87346</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>99999999</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>986522</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
+      <c r="F7" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
-        <v>98765</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>4557889</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>13</v>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>890124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>88888888</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
-        <v>123098</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>89055433</v>
-      </c>
-      <c r="E5" s="0" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8709</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
-        <v>9012</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>9065433</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>17</v>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.790000021457672" footer="0.19680555164814" header="0.19680555164814" left="0.790000021457672" right="0.790000021457672" top="0.790000021457672"/>
+  <pageMargins left="0.790000021457672" right="0.790000021457672" top="0.790000021457672" bottom="0.790000021457672" header="0.19680555164814" footer="0.19680555164814"/>
+  <headerFooter/>
 </worksheet>
 </file>